--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_19.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_19.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_8</t>
+          <t>model_1_19_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995022374069948</v>
+        <v>0.9497318774596981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8289388310446341</v>
+        <v>0.7468931404984172</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8189656104090891</v>
+        <v>0.7653382384875609</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9959461525681008</v>
+        <v>0.9020287626752482</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002071950082068739</v>
+        <v>0.1762154354955624</v>
       </c>
       <c r="G2" t="n">
-        <v>1.143886824468789</v>
+        <v>1.692526734937009</v>
       </c>
       <c r="H2" t="n">
-        <v>0.647549514589661</v>
+        <v>0.8393715144592833</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007698194702394389</v>
+        <v>0.2566335426745038</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07713446816688917</v>
+        <v>1.399990058119856</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04551867838666605</v>
+        <v>0.419780222849484</v>
       </c>
       <c r="L2" t="n">
-        <v>1.03185680595233</v>
+        <v>0.9315497905834187</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04623555206927118</v>
+        <v>0.4263913417330907</v>
       </c>
       <c r="N2" t="n">
-        <v>142.3585300930816</v>
+        <v>37.47209593437089</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6937026362979</v>
+        <v>74.43667952259671</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_9</t>
+          <t>model_1_19_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9994708353412576</v>
+        <v>0.9498269151788115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.828921060643353</v>
+        <v>0.7462114627486852</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8194780346514622</v>
+        <v>0.764373422506245</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9952972489719245</v>
+        <v>0.9001032817722894</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002202662019035673</v>
+        <v>0.1758822797655338</v>
       </c>
       <c r="G3" t="n">
-        <v>1.144005655223981</v>
+        <v>1.697085117188304</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6457166027867574</v>
+        <v>0.8428226052812055</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008930452775833587</v>
+        <v>0.2616772983621091</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07289911932301181</v>
+        <v>1.393193184123052</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0469325262375218</v>
+        <v>0.4193832134999371</v>
       </c>
       <c r="L3" t="n">
-        <v>1.033866538159515</v>
+        <v>0.9316792036477433</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04767166661044858</v>
+        <v>0.4259880798831522</v>
       </c>
       <c r="N3" t="n">
-        <v>142.2361772828715</v>
+        <v>37.47588074540502</v>
       </c>
       <c r="O3" t="n">
-        <v>283.5713498260879</v>
+        <v>74.44046433363084</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_6</t>
+          <t>model_1_19_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994788122886474</v>
+        <v>0.9498801363909714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8287358801094377</v>
+        <v>0.746158250838694</v>
       </c>
       <c r="D4" t="n">
-        <v>0.818796700322119</v>
+        <v>0.763946475108026</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9963531049788398</v>
+        <v>0.8993987964860599</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002169457762566328</v>
+        <v>0.1756957122431279</v>
       </c>
       <c r="G4" t="n">
-        <v>1.145243958306951</v>
+        <v>1.697440945475433</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6481536961767838</v>
+        <v>0.8443497713688017</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006925398255289312</v>
+        <v>0.2635226823717836</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09633572701156416</v>
+        <v>1.39099650193939</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04657743834268184</v>
+        <v>0.4191607236408582</v>
       </c>
       <c r="L4" t="n">
-        <v>1.033356013526564</v>
+        <v>0.931751675085578</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04731098643622255</v>
+        <v>0.4257620860312011</v>
       </c>
       <c r="N4" t="n">
-        <v>142.2665560433128</v>
+        <v>37.47800337587859</v>
       </c>
       <c r="O4" t="n">
-        <v>283.6017285865292</v>
+        <v>74.44258696410441</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_5</t>
+          <t>model_1_19_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9994914702540384</v>
+        <v>0.9502689296424761</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8286854785357711</v>
+        <v>0.743796596991783</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8186516196170475</v>
+        <v>0.7576863037126059</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9965909944852973</v>
+        <v>0.8880960229889567</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002116768643698829</v>
+        <v>0.1743327933858199</v>
       </c>
       <c r="G5" t="n">
-        <v>1.145580993862137</v>
+        <v>1.713233335624143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6486726414465621</v>
+        <v>0.8667420414646263</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006473649695647843</v>
+        <v>0.2931300537168452</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09751008203927529</v>
+        <v>1.356364739102114</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04600835406422217</v>
+        <v>0.4175317872759149</v>
       </c>
       <c r="L5" t="n">
-        <v>1.032545903741543</v>
+        <v>0.9322810956833717</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04673293964925272</v>
+        <v>0.4241074955468489</v>
       </c>
       <c r="N5" t="n">
-        <v>142.3157291555615</v>
+        <v>37.49357840160678</v>
       </c>
       <c r="O5" t="n">
-        <v>283.6509016987779</v>
+        <v>74.4581619898326</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_3</t>
+          <t>model_1_19_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9994889975349825</v>
+        <v>0.9502865426618942</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8285483315914326</v>
+        <v>0.7437251640781199</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8184729118416763</v>
+        <v>0.7572918182552697</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9967292487906213</v>
+        <v>0.8874212210325989</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002127061402782674</v>
+        <v>0.1742710507598712</v>
       </c>
       <c r="G6" t="n">
-        <v>1.146498096110432</v>
+        <v>1.713711007846727</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6493118687969924</v>
+        <v>0.8681530930719368</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006211106869676276</v>
+        <v>0.2948976828842685</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09904631410659379</v>
+        <v>1.35445712099779</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04612007591909053</v>
+        <v>0.4174578430930137</v>
       </c>
       <c r="L6" t="n">
-        <v>1.032704157761117</v>
+        <v>0.9323050793693878</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04684642101165436</v>
+        <v>0.4240323868169841</v>
       </c>
       <c r="N6" t="n">
-        <v>142.3060277498474</v>
+        <v>37.49428685766808</v>
       </c>
       <c r="O6" t="n">
-        <v>283.6412002930638</v>
+        <v>74.45887044589389</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_4</t>
+          <t>model_1_19_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9994944655993909</v>
+        <v>0.9501271701810318</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8284619793578583</v>
+        <v>0.7414045365665107</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8185621252461193</v>
+        <v>0.755046924902582</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9967807072808674</v>
+        <v>0.8821851634781153</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002104300438702582</v>
+        <v>0.1748297326779924</v>
       </c>
       <c r="G7" t="n">
-        <v>1.147075533893959</v>
+        <v>1.729229054702365</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6489927576221901</v>
+        <v>0.8761829464281057</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00611338797826252</v>
+        <v>0.3086134226926832</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09873712558429394</v>
+        <v>1.336522917224505</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04587265458530367</v>
+        <v>0.4181264553672638</v>
       </c>
       <c r="L7" t="n">
-        <v>1.032354201638981</v>
+        <v>0.9320880615231071</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04659510303919096</v>
+        <v>0.4247115290661865</v>
       </c>
       <c r="N7" t="n">
-        <v>142.3275444004812</v>
+        <v>37.48788546962686</v>
       </c>
       <c r="O7" t="n">
-        <v>283.6627169436976</v>
+        <v>74.45246905785268</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_7</t>
+          <t>model_1_19_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9994864216140783</v>
+        <v>0.9498383401342946</v>
       </c>
       <c r="C8" t="n">
-        <v>0.828392066535574</v>
+        <v>0.7388791559674537</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8191341524871715</v>
+        <v>0.7522256281467626</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9962563516717716</v>
+        <v>0.8759607968146433</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002137783742315177</v>
+        <v>0.1758422294631906</v>
       </c>
       <c r="G8" t="n">
-        <v>1.147543041258493</v>
+        <v>1.746116286396568</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6469466493489917</v>
+        <v>0.8862745613354861</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007109131315899858</v>
+        <v>0.3249180168916614</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09157881646814393</v>
+        <v>1.316803415974462</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04623617352587881</v>
+        <v>0.4193354617286626</v>
       </c>
       <c r="L8" t="n">
-        <v>1.032869016698989</v>
+        <v>0.931694761033933</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04696434703969454</v>
+        <v>0.4259395760692144</v>
       </c>
       <c r="N8" t="n">
-        <v>142.2959712420408</v>
+        <v>37.47633621895282</v>
       </c>
       <c r="O8" t="n">
-        <v>283.6311437852572</v>
+        <v>74.44091980717864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_2</t>
+          <t>model_1_19_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9995167424087463</v>
+        <v>0.9497077746702333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.828338330480979</v>
+        <v>0.7378861866466875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8178074471486561</v>
+        <v>0.7501104902306951</v>
       </c>
       <c r="E9" t="n">
-        <v>0.997942549898194</v>
+        <v>0.8719336601768016</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002011572625040449</v>
+        <v>0.1762999280790836</v>
       </c>
       <c r="G9" t="n">
-        <v>1.147902374503001</v>
+        <v>1.752756276816734</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6516921974180661</v>
+        <v>0.8938402870185167</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003907066494296593</v>
+        <v>0.3354670144385417</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1142520741404026</v>
+        <v>1.306270590913541</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04485055880410465</v>
+        <v>0.4198808498599139</v>
       </c>
       <c r="L9" t="n">
-        <v>1.030928485840235</v>
+        <v>0.9315169697637219</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04555691027115899</v>
+        <v>0.4264935535183448</v>
       </c>
       <c r="N9" t="n">
-        <v>142.4176769246185</v>
+        <v>37.47113719504921</v>
       </c>
       <c r="O9" t="n">
-        <v>283.7528494678349</v>
+        <v>74.43572078327503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_1</t>
+          <t>model_1_19_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999510799748488</v>
+        <v>0.9492714337283218</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8275026171379938</v>
+        <v>0.7353934497181168</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8177517109088019</v>
+        <v>0.7485621470288832</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9987078258373567</v>
+        <v>0.8680431365101978</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002036309107016069</v>
+        <v>0.1778295258682557</v>
       </c>
       <c r="G10" t="n">
-        <v>1.15349079347565</v>
+        <v>1.769425220136084</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6518915627162511</v>
+        <v>0.8993786208733006</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00245381910901631</v>
+        <v>0.3456581572543656</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1186484746580657</v>
+        <v>1.293384686625272</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04512548179261989</v>
+        <v>0.4216983825772346</v>
       </c>
       <c r="L10" t="n">
-        <v>1.031308816096768</v>
+        <v>0.9309228033747361</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04583616302192119</v>
+        <v>0.4283397105590972</v>
       </c>
       <c r="N10" t="n">
-        <v>142.3932327421653</v>
+        <v>37.45385981487597</v>
       </c>
       <c r="O10" t="n">
-        <v>283.7284052853817</v>
+        <v>74.41844340310179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_0</t>
+          <t>model_1_19_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9994288346483718</v>
+        <v>0.9490230095621919</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8266860412460898</v>
+        <v>0.7341328258422168</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8169395261951536</v>
+        <v>0.7467781883449707</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9989564853178092</v>
+        <v>0.8644574095155637</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002377491024457958</v>
+        <v>0.1787003794114154</v>
       </c>
       <c r="G11" t="n">
-        <v>1.158951240224798</v>
+        <v>1.777855017798867</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6547967003437958</v>
+        <v>0.905759737645788</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001981618532335474</v>
+        <v>0.3550508917632322</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1265615264051124</v>
+        <v>1.283526180757476</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04875952239776306</v>
+        <v>0.4227296765208416</v>
       </c>
       <c r="L11" t="n">
-        <v>1.036554582504202</v>
+        <v>0.9305845236591549</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0495274361338875</v>
+        <v>0.4293872463514002</v>
       </c>
       <c r="N11" t="n">
-        <v>142.0834190775071</v>
+        <v>37.44408946728754</v>
       </c>
       <c r="O11" t="n">
-        <v>283.4185916207235</v>
+        <v>74.40867305551336</v>
       </c>
     </row>
   </sheetData>
